--- a/Code/Results/Cases/Case_2_120/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_120/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>18.85497663485365</v>
+        <v>15.15329931950635</v>
       </c>
       <c r="C2">
-        <v>11.33285513482019</v>
+        <v>10.32029484289569</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>9.088589751340862</v>
+        <v>15.73922050295</v>
       </c>
       <c r="F2">
-        <v>25.62654308351131</v>
+        <v>36.97416411342906</v>
       </c>
       <c r="G2">
-        <v>2.082491142011269</v>
+        <v>3.644082794583784</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>14.43603710300445</v>
+        <v>23.82156964551764</v>
       </c>
       <c r="J2">
-        <v>5.265486364021624</v>
+        <v>7.745291093423609</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>7.979633886842493</v>
+        <v>12.73455317073982</v>
       </c>
       <c r="M2">
-        <v>12.65144564209694</v>
+        <v>16.60815068032149</v>
       </c>
       <c r="N2">
-        <v>12.38347437971537</v>
+        <v>18.45601016960284</v>
       </c>
       <c r="O2">
-        <v>15.48303666914029</v>
+        <v>23.51964366730065</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>17.5846964325163</v>
+        <v>14.74324394752008</v>
       </c>
       <c r="C3">
-        <v>10.88125484782793</v>
+        <v>10.15349901774341</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>9.125942428733213</v>
+        <v>15.77187840597638</v>
       </c>
       <c r="F3">
-        <v>25.12435205630668</v>
+        <v>37.01116878736758</v>
       </c>
       <c r="G3">
-        <v>2.087504686424033</v>
+        <v>3.646026061369065</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>14.55405803209356</v>
+        <v>23.91798183045355</v>
       </c>
       <c r="J3">
-        <v>5.232833510666611</v>
+        <v>7.737483507866232</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>7.831204130368354</v>
+        <v>12.7331782029122</v>
       </c>
       <c r="M3">
-        <v>12.10021443541672</v>
+        <v>16.52163129511129</v>
       </c>
       <c r="N3">
-        <v>12.53418505210517</v>
+        <v>18.50707063950911</v>
       </c>
       <c r="O3">
-        <v>15.33815118690537</v>
+        <v>23.57895703228353</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>16.75789752681245</v>
+        <v>14.48756323597926</v>
       </c>
       <c r="C4">
-        <v>10.59376520300982</v>
+        <v>10.04856579192023</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>9.15191000222697</v>
+        <v>15.79342641532775</v>
       </c>
       <c r="F4">
-        <v>24.83178007793595</v>
+        <v>37.0423792531146</v>
       </c>
       <c r="G4">
-        <v>2.090682022685945</v>
+        <v>3.647283316922919</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>14.63859511792127</v>
+        <v>23.98177142547627</v>
       </c>
       <c r="J4">
-        <v>5.212713246640324</v>
+        <v>7.732691224403032</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>7.741535712184726</v>
+        <v>12.73384558831676</v>
       </c>
       <c r="M4">
-        <v>11.75235587484077</v>
+        <v>16.470440958795</v>
       </c>
       <c r="N4">
-        <v>12.62997730776748</v>
+        <v>18.54017735440427</v>
       </c>
       <c r="O4">
-        <v>15.26291155414319</v>
+        <v>23.62075773690207</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>16.40912670917507</v>
+        <v>14.38254393331393</v>
       </c>
       <c r="C5">
-        <v>10.47413988563971</v>
+        <v>10.00520058433682</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>9.163242590314216</v>
+        <v>15.80258421615792</v>
       </c>
       <c r="F5">
-        <v>24.71658822982236</v>
+        <v>37.05723081509729</v>
       </c>
       <c r="G5">
-        <v>2.092002241670108</v>
+        <v>3.647811822928096</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>14.67594838909748</v>
+        <v>24.00891981598357</v>
       </c>
       <c r="J5">
-        <v>5.204498869945433</v>
+        <v>7.730739019980808</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>7.705401868349214</v>
+        <v>12.7344990291335</v>
       </c>
       <c r="M5">
-        <v>11.60842967590811</v>
+        <v>16.45008169946048</v>
       </c>
       <c r="N5">
-        <v>12.66983146632833</v>
+        <v>18.55411099610703</v>
       </c>
       <c r="O5">
-        <v>15.23561610479402</v>
+        <v>23.63914209007698</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>16.35049637391836</v>
+        <v>14.36506028171986</v>
       </c>
       <c r="C6">
-        <v>10.45413001911365</v>
+        <v>9.997964225599155</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>9.16516934645102</v>
+        <v>15.804127639629</v>
       </c>
       <c r="F6">
-        <v>24.6977060195905</v>
+        <v>37.05982566986776</v>
       </c>
       <c r="G6">
-        <v>2.092223014071785</v>
+        <v>3.647900558702433</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>14.68232250218036</v>
+        <v>24.01349742868504</v>
       </c>
       <c r="J6">
-        <v>5.203134038714651</v>
+        <v>7.730414907895335</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>7.699427532733671</v>
+        <v>12.73463061051839</v>
       </c>
       <c r="M6">
-        <v>11.58440586538116</v>
+        <v>16.44673176325069</v>
       </c>
       <c r="N6">
-        <v>12.67649862464032</v>
+        <v>18.55645141486623</v>
       </c>
       <c r="O6">
-        <v>15.23128432072877</v>
+        <v>23.64227625177362</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>16.75324192141293</v>
+        <v>14.48615004794924</v>
       </c>
       <c r="C7">
-        <v>10.59216176258497</v>
+        <v>10.04798335954695</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>9.15205981399466</v>
+        <v>15.79354839406432</v>
       </c>
       <c r="F7">
-        <v>24.83021014993485</v>
+        <v>37.04257091274938</v>
       </c>
       <c r="G7">
-        <v>2.09069972396916</v>
+        <v>3.647290379024887</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>14.63908729020403</v>
+        <v>23.9821328887034</v>
       </c>
       <c r="J7">
-        <v>5.212602522710799</v>
+        <v>7.732664893125493</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>7.741046702023649</v>
+        <v>12.73385285453862</v>
       </c>
       <c r="M7">
-        <v>11.75042335212608</v>
+        <v>16.47016433772322</v>
       </c>
       <c r="N7">
-        <v>12.63051148282904</v>
+        <v>18.540363475855</v>
       </c>
       <c r="O7">
-        <v>15.26252993070064</v>
+        <v>23.62100021204709</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>18.42666674075481</v>
+        <v>15.0128126754146</v>
       </c>
       <c r="C8">
-        <v>11.17931417987709</v>
+        <v>10.26332406338186</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>9.100832115653322</v>
+        <v>15.75017085973543</v>
       </c>
       <c r="F8">
-        <v>25.45015727543006</v>
+        <v>36.98516056775317</v>
       </c>
       <c r="G8">
-        <v>2.084199593857871</v>
+        <v>3.644739563066059</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>14.4741442125555</v>
+        <v>23.85385880150699</v>
       </c>
       <c r="J8">
-        <v>5.254244100411523</v>
+        <v>7.742598875711508</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>7.928173195023221</v>
+        <v>12.73376619346971</v>
       </c>
       <c r="M8">
-        <v>12.46343981061847</v>
+        <v>16.57792690372307</v>
       </c>
       <c r="N8">
-        <v>12.434763251024</v>
+        <v>18.4732520803215</v>
       </c>
       <c r="O8">
-        <v>15.43018414153784</v>
+        <v>23.53897605592422</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>21.33954257993884</v>
+        <v>16.0082914788186</v>
       </c>
       <c r="C9">
-        <v>12.24627891593327</v>
+        <v>10.66437116370266</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>9.024999452945439</v>
+        <v>15.67694810819113</v>
       </c>
       <c r="F9">
-        <v>26.78758732612101</v>
+        <v>36.93998159194252</v>
       </c>
       <c r="G9">
-        <v>2.072212927559998</v>
+        <v>3.64024358996479</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>14.25265875188411</v>
+        <v>23.63879995954914</v>
       </c>
       <c r="J9">
-        <v>5.335216912242339</v>
+        <v>7.762080139944838</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>8.305135885175586</v>
+        <v>12.74552722920148</v>
       </c>
       <c r="M9">
-        <v>13.77990368552429</v>
+        <v>16.80389346340912</v>
       </c>
       <c r="N9">
-        <v>12.07678912174176</v>
+        <v>18.35553042478596</v>
       </c>
       <c r="O9">
-        <v>15.87115626474823</v>
+        <v>23.42096201424052</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>23.25903119753746</v>
+        <v>16.70916251313636</v>
       </c>
       <c r="C10">
-        <v>12.97499653655017</v>
+        <v>10.9445006758408</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>8.985098721539565</v>
+        <v>15.63032984738147</v>
       </c>
       <c r="F10">
-        <v>27.83933082039884</v>
+        <v>36.94788787230778</v>
       </c>
       <c r="G10">
-        <v>2.06383222642166</v>
+        <v>3.637245766331567</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>14.16097380030395</v>
+        <v>23.50310741553927</v>
       </c>
       <c r="J10">
-        <v>5.394125969315996</v>
+        <v>7.776378258541652</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>8.586056224098897</v>
+        <v>12.76135238669203</v>
       </c>
       <c r="M10">
-        <v>14.68934740800808</v>
+        <v>16.97787739135116</v>
       </c>
       <c r="N10">
-        <v>11.82971068829619</v>
+        <v>18.27744211311814</v>
       </c>
       <c r="O10">
-        <v>16.26746853796734</v>
+        <v>23.36053522278583</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>24.085276878981</v>
+        <v>17.01994467765008</v>
       </c>
       <c r="C11">
-        <v>13.29398349854338</v>
+        <v>11.06847794358843</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>8.970563429732332</v>
+        <v>15.61067231800944</v>
       </c>
       <c r="F11">
-        <v>28.33167697572668</v>
+        <v>36.96039163581578</v>
       </c>
       <c r="G11">
-        <v>2.060103320430114</v>
+        <v>3.635947604785566</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>14.13670923378559</v>
+        <v>23.44623709266865</v>
       </c>
       <c r="J11">
-        <v>5.420763016513649</v>
+        <v>7.782876364927688</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>8.714290279324803</v>
+        <v>12.7700904570526</v>
       </c>
       <c r="M11">
-        <v>15.08929307521993</v>
+        <v>17.05854269021897</v>
       </c>
       <c r="N11">
-        <v>11.72082315021088</v>
+        <v>18.24372914874709</v>
       </c>
       <c r="O11">
-        <v>16.46413340461944</v>
+        <v>23.33878100274889</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>24.39148088883814</v>
+        <v>17.13636648978818</v>
       </c>
       <c r="C12">
-        <v>13.41294470390797</v>
+        <v>11.11490397609165</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>8.965595070482488</v>
+        <v>15.60345066669055</v>
       </c>
       <c r="F12">
-        <v>28.52002167275222</v>
+        <v>36.96640410291731</v>
       </c>
       <c r="G12">
-        <v>2.058702522241395</v>
+        <v>3.63546540109171</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>14.13020234365703</v>
+        <v>23.4254015660426</v>
       </c>
       <c r="J12">
-        <v>5.43082344902988</v>
+        <v>7.785335830246812</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>8.762879725897399</v>
+        <v>12.77361864126847</v>
       </c>
       <c r="M12">
-        <v>15.23868390905986</v>
+        <v>17.08928831154194</v>
       </c>
       <c r="N12">
-        <v>11.68010224813981</v>
+        <v>18.23122223538535</v>
       </c>
       <c r="O12">
-        <v>16.54100435315615</v>
+        <v>23.33136969769546</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>24.32583017463418</v>
+        <v>17.11135081993007</v>
       </c>
       <c r="C13">
-        <v>13.38740619767308</v>
+        <v>11.10492886935116</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>8.966641003953374</v>
+        <v>15.60499610384611</v>
       </c>
       <c r="F13">
-        <v>28.47937504819145</v>
+        <v>36.96505245351509</v>
       </c>
       <c r="G13">
-        <v>2.059003721004061</v>
+        <v>3.635568835750589</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>14.13148165076544</v>
+        <v>23.42985770960555</v>
       </c>
       <c r="J13">
-        <v>5.428657983763259</v>
+        <v>7.784806200364472</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>8.752414293625323</v>
+        <v>12.77284906574632</v>
       </c>
       <c r="M13">
-        <v>15.20660264211013</v>
+        <v>17.08265812837352</v>
       </c>
       <c r="N13">
-        <v>11.68884928843414</v>
+        <v>18.23390429604913</v>
       </c>
       <c r="O13">
-        <v>16.52434153779222</v>
+        <v>23.33292906620673</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>24.11060186758705</v>
+        <v>17.02954869560689</v>
       </c>
       <c r="C14">
-        <v>13.30380738593918</v>
+        <v>11.07230802842912</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>8.970143847457955</v>
+        <v>15.6100737378575</v>
       </c>
       <c r="F14">
-        <v>28.34713457488736</v>
+        <v>36.96086070319434</v>
       </c>
       <c r="G14">
-        <v>2.059987854780617</v>
+        <v>3.635907745832113</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>14.13611915754034</v>
+        <v>23.4445089024069</v>
       </c>
       <c r="J14">
-        <v>5.421591243278765</v>
+        <v>7.7830787331538</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>8.718287344820762</v>
+        <v>12.7703763406666</v>
       </c>
       <c r="M14">
-        <v>15.10162523520152</v>
+        <v>17.06106826422441</v>
       </c>
       <c r="N14">
-        <v>11.71746269587788</v>
+        <v>18.24269500207019</v>
       </c>
       <c r="O14">
-        <v>16.47040933556583</v>
+        <v>23.33815469492333</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>23.97790092015854</v>
+        <v>16.97927481970033</v>
       </c>
       <c r="C15">
-        <v>13.25236126437322</v>
+        <v>11.05225820329217</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>8.972359705151755</v>
+        <v>15.61321285922907</v>
       </c>
       <c r="F15">
-        <v>28.26637868202806</v>
+        <v>36.95845939704054</v>
       </c>
       <c r="G15">
-        <v>2.060592108065097</v>
+        <v>3.636116558484828</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>14.13931420071557</v>
+        <v>23.45357439380975</v>
       </c>
       <c r="J15">
-        <v>5.417259118916305</v>
+        <v>7.782020439767182</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>8.697386554472851</v>
+        <v>12.76889021706208</v>
       </c>
       <c r="M15">
-        <v>15.0370531744021</v>
+        <v>17.04786925033366</v>
       </c>
       <c r="N15">
-        <v>11.73505623145919</v>
+        <v>18.24811332879966</v>
       </c>
       <c r="O15">
-        <v>16.43768779315837</v>
+        <v>23.34146323680962</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>23.20409571405482</v>
+        <v>16.68868081954466</v>
       </c>
       <c r="C16">
-        <v>12.95389518532548</v>
+        <v>10.93632680797353</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>8.986122740050845</v>
+        <v>15.63164564160291</v>
       </c>
       <c r="F16">
-        <v>27.80742632787214</v>
+        <v>36.94724969988291</v>
       </c>
       <c r="G16">
-        <v>2.064077536566669</v>
+        <v>3.637331919601478</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>14.1629252591025</v>
+        <v>23.50692189576791</v>
       </c>
       <c r="J16">
-        <v>5.392381656321743</v>
+        <v>7.775953438877105</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>8.577681797425267</v>
+        <v>12.76081213117715</v>
       </c>
       <c r="M16">
-        <v>14.66292576511282</v>
+        <v>16.97263467350952</v>
       </c>
       <c r="N16">
-        <v>11.83689799057679</v>
+        <v>18.27968168423202</v>
       </c>
       <c r="O16">
-        <v>16.25494943525758</v>
+        <v>23.36207247571568</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>22.71741998131896</v>
+        <v>16.50827002485705</v>
       </c>
       <c r="C17">
-        <v>12.76756497072201</v>
+        <v>10.86430376542177</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>8.995503112488302</v>
+        <v>15.64334997893547</v>
       </c>
       <c r="F17">
-        <v>27.52936531380324</v>
+        <v>36.94265224134446</v>
       </c>
       <c r="G17">
-        <v>2.066236604488424</v>
+        <v>3.638094263780526</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>14.18199936540215</v>
+        <v>23.5408939724018</v>
       </c>
       <c r="J17">
-        <v>5.377076584818791</v>
+        <v>7.772229708648362</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>8.504335385545541</v>
+        <v>12.75624926758804</v>
       </c>
       <c r="M17">
-        <v>14.42982250790985</v>
+        <v>16.92685634301644</v>
       </c>
       <c r="N17">
-        <v>11.90027847971428</v>
+        <v>18.29951081084776</v>
       </c>
       <c r="O17">
-        <v>16.14707318210987</v>
+        <v>23.37618575844517</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>22.43307437024225</v>
+        <v>16.40375080678813</v>
       </c>
       <c r="C18">
-        <v>12.65921657738542</v>
+        <v>10.82255419676404</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>9.001237797738092</v>
+        <v>15.65022787023228</v>
       </c>
       <c r="F18">
-        <v>27.37074604172876</v>
+        <v>36.94084654854121</v>
       </c>
       <c r="G18">
-        <v>2.067486352019776</v>
+        <v>3.638538917859439</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>14.19460147283193</v>
+        <v>23.56089086888128</v>
       </c>
       <c r="J18">
-        <v>5.368258560787643</v>
+        <v>7.77008735636248</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>8.462191940499901</v>
+        <v>12.75376982964793</v>
       </c>
       <c r="M18">
-        <v>14.29445575104885</v>
+        <v>16.90067000582562</v>
       </c>
       <c r="N18">
-        <v>11.93706304019327</v>
+        <v>18.31108639307374</v>
       </c>
       <c r="O18">
-        <v>16.0865652994031</v>
+        <v>23.38484298130445</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>22.33603806856886</v>
+        <v>16.36823672707131</v>
       </c>
       <c r="C19">
-        <v>12.62233083436329</v>
+        <v>10.80836366703327</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>9.00323727185558</v>
+        <v>15.65258167596494</v>
       </c>
       <c r="F19">
-        <v>27.31726896504506</v>
+        <v>36.94037929308994</v>
       </c>
       <c r="G19">
-        <v>2.067910875544972</v>
+        <v>3.638690531868494</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>14.1991432829524</v>
+        <v>23.56773992538151</v>
       </c>
       <c r="J19">
-        <v>5.365270460750151</v>
+        <v>7.76936190653581</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>8.447931421645084</v>
+        <v>12.75295529931812</v>
       </c>
       <c r="M19">
-        <v>14.24840373422464</v>
+        <v>16.89182909438525</v>
       </c>
       <c r="N19">
-        <v>11.94957409319257</v>
+        <v>18.31503497597606</v>
       </c>
       <c r="O19">
-        <v>16.06634140876366</v>
+        <v>23.38786678570155</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>22.76968464724945</v>
+        <v>16.52755366985562</v>
       </c>
       <c r="C20">
-        <v>12.7875221418949</v>
+        <v>10.87200443818715</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>8.994469321935705</v>
+        <v>15.64208893977387</v>
       </c>
       <c r="F20">
-        <v>27.55883009065294</v>
+        <v>36.94305487267223</v>
       </c>
       <c r="G20">
-        <v>2.06600595479175</v>
+        <v>3.638012472303156</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>14.17979883194518</v>
+        <v>23.53723027154547</v>
       </c>
       <c r="J20">
-        <v>5.378707406911663</v>
+        <v>7.772626166595724</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>8.512138987944164</v>
+        <v>12.75671999973434</v>
       </c>
       <c r="M20">
-        <v>14.45477109385096</v>
+        <v>16.93171474259802</v>
       </c>
       <c r="N20">
-        <v>11.89349733711529</v>
+        <v>18.29738233722345</v>
       </c>
       <c r="O20">
-        <v>16.15839711310807</v>
+        <v>23.37462750975557</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>24.17400027050038</v>
+        <v>17.05361109143985</v>
       </c>
       <c r="C21">
-        <v>13.32841232766512</v>
+        <v>11.08190390213986</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>8.969100304998944</v>
+        <v>15.60857628695386</v>
       </c>
       <c r="F21">
-        <v>28.38592586596032</v>
+        <v>36.96205728029852</v>
       </c>
       <c r="G21">
-        <v>2.059698491541003</v>
+        <v>3.635807945469041</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>14.13468283007772</v>
+        <v>23.44018648037322</v>
       </c>
       <c r="J21">
-        <v>5.423667660312149</v>
+        <v>7.783586168151636</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>8.728310698339843</v>
+        <v>12.77109670611196</v>
       </c>
       <c r="M21">
-        <v>15.13251610948727</v>
+        <v>17.06740447139643</v>
       </c>
       <c r="N21">
-        <v>11.70904426585537</v>
+        <v>18.24010592331569</v>
       </c>
       <c r="O21">
-        <v>16.48618513163134</v>
+        <v>23.33659735484674</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>25.05291645861573</v>
+        <v>17.39000578872823</v>
       </c>
       <c r="C22">
-        <v>13.67122681506003</v>
+        <v>11.21603536729194</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>8.955651310189129</v>
+        <v>15.58796888692687</v>
       </c>
       <c r="F22">
-        <v>28.93753882224352</v>
+        <v>36.98192083277581</v>
       </c>
       <c r="G22">
-        <v>2.055641433020576</v>
+        <v>3.634421823597945</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>14.12091047318914</v>
+        <v>23.3808438239922</v>
       </c>
       <c r="J22">
-        <v>5.452896111052164</v>
+        <v>7.790741853522455</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>8.869752448340298</v>
+        <v>12.78176973121104</v>
       </c>
       <c r="M22">
-        <v>15.56342891692114</v>
+        <v>17.15723893667175</v>
       </c>
       <c r="N22">
-        <v>11.5914854194808</v>
+        <v>18.20418442205031</v>
       </c>
       <c r="O22">
-        <v>16.71440830497289</v>
+        <v>23.3165608661209</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>24.58735585240506</v>
+        <v>17.21117694916282</v>
       </c>
       <c r="C23">
-        <v>13.48924683221192</v>
+        <v>11.14473373442824</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>8.962537373951749</v>
+        <v>15.59884913307674</v>
       </c>
       <c r="F23">
-        <v>28.64215057641148</v>
+        <v>36.97063946370758</v>
       </c>
       <c r="G23">
-        <v>2.0578010539361</v>
+        <v>3.635156636292902</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>14.12676492448217</v>
+        <v>23.41214216146987</v>
       </c>
       <c r="J23">
-        <v>5.437311682640688</v>
+        <v>7.786923511194735</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>8.794258032927276</v>
+        <v>12.77595719989278</v>
       </c>
       <c r="M23">
-        <v>15.33456603997482</v>
+        <v>17.10919341180493</v>
       </c>
       <c r="N23">
-        <v>11.6539519718266</v>
+        <v>18.22321831680659</v>
       </c>
       <c r="O23">
-        <v>16.59130809611817</v>
+        <v>23.3268132685746</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>22.74606996714265</v>
+        <v>16.51883801328132</v>
       </c>
       <c r="C24">
-        <v>12.77850331675276</v>
+        <v>10.86852402918976</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>8.994935635258759</v>
+        <v>15.64265859170006</v>
       </c>
       <c r="F24">
-        <v>27.54550519006727</v>
+        <v>36.94287023422487</v>
       </c>
       <c r="G24">
-        <v>2.066110205079061</v>
+        <v>3.638049430377093</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>14.18078860995263</v>
+        <v>23.53888517956609</v>
       </c>
       <c r="J24">
-        <v>5.377970170971681</v>
+        <v>7.772446932693858</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>8.508610900772332</v>
+        <v>12.75650673361742</v>
       </c>
       <c r="M24">
-        <v>14.44349604486968</v>
+        <v>16.92951784679613</v>
       </c>
       <c r="N24">
-        <v>11.89656201368412</v>
+        <v>18.29834407324153</v>
       </c>
       <c r="O24">
-        <v>16.15327285886489</v>
+        <v>23.37533030175178</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>20.5905785479503</v>
+        <v>15.74382320679674</v>
       </c>
       <c r="C25">
-        <v>11.96710584512242</v>
+        <v>10.55831805655532</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>9.042797047237601</v>
+        <v>15.69549331952074</v>
       </c>
       <c r="F25">
-        <v>26.41325076467863</v>
+        <v>36.94498312962038</v>
       </c>
       <c r="G25">
-        <v>2.075378012384744</v>
+        <v>3.641406013775356</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>14.30076549512515</v>
+        <v>23.69306599862123</v>
       </c>
       <c r="J25">
-        <v>5.313401705046704</v>
+        <v>7.756811414691625</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>8.202310754975411</v>
+        <v>12.74107700486536</v>
       </c>
       <c r="M25">
-        <v>13.43342171909946</v>
+        <v>16.74129298892427</v>
       </c>
       <c r="N25">
-        <v>12.17084874390633</v>
+        <v>18.38589740330444</v>
       </c>
       <c r="O25">
-        <v>15.73940990619243</v>
+        <v>23.44828399807169</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_120/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_120/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>15.15329931950635</v>
+        <v>18.85497663485368</v>
       </c>
       <c r="C2">
-        <v>10.32029484289569</v>
+        <v>11.33285513482019</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>15.73922050295</v>
+        <v>9.08858975134093</v>
       </c>
       <c r="F2">
-        <v>36.97416411342906</v>
+        <v>25.62654308351135</v>
       </c>
       <c r="G2">
-        <v>3.644082794583784</v>
+        <v>2.08249114201127</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>23.82156964551764</v>
+        <v>14.43603710300435</v>
       </c>
       <c r="J2">
-        <v>7.745291093423609</v>
+        <v>5.265486364021524</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>12.73455317073982</v>
+        <v>7.979633886842569</v>
       </c>
       <c r="M2">
-        <v>16.60815068032149</v>
+        <v>12.65144564209694</v>
       </c>
       <c r="N2">
-        <v>18.45601016960284</v>
+        <v>12.38347437971531</v>
       </c>
       <c r="O2">
-        <v>23.51964366730065</v>
+        <v>15.4830366691402</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>14.74324394752008</v>
+        <v>17.5846964325163</v>
       </c>
       <c r="C3">
-        <v>10.15349901774341</v>
+        <v>10.881254847828</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>15.77187840597638</v>
+        <v>9.125942428733207</v>
       </c>
       <c r="F3">
-        <v>37.01116878736758</v>
+        <v>25.12435205630678</v>
       </c>
       <c r="G3">
-        <v>3.646026061369065</v>
+        <v>2.0875046864243</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>23.91798183045355</v>
+        <v>14.55405803209372</v>
       </c>
       <c r="J3">
-        <v>7.737483507866232</v>
+        <v>5.232833510666607</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>12.7331782029122</v>
+        <v>7.83120413036833</v>
       </c>
       <c r="M3">
-        <v>16.52163129511129</v>
+        <v>12.10021443541673</v>
       </c>
       <c r="N3">
-        <v>18.50707063950911</v>
+        <v>12.53418505210523</v>
       </c>
       <c r="O3">
-        <v>23.57895703228353</v>
+        <v>15.33815118690549</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>14.48756323597926</v>
+        <v>16.75789752681246</v>
       </c>
       <c r="C4">
-        <v>10.04856579192023</v>
+        <v>10.59376520300981</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>15.79342641532775</v>
+        <v>9.151910002227156</v>
       </c>
       <c r="F4">
-        <v>37.0423792531146</v>
+        <v>24.83178007793595</v>
       </c>
       <c r="G4">
-        <v>3.647283316922919</v>
+        <v>2.090682022685944</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>23.98177142547627</v>
+        <v>14.63859511792121</v>
       </c>
       <c r="J4">
-        <v>7.732691224403032</v>
+        <v>5.212713246640321</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>12.73384558831676</v>
+        <v>7.741535712184751</v>
       </c>
       <c r="M4">
-        <v>16.470440958795</v>
+        <v>11.7523558748408</v>
       </c>
       <c r="N4">
-        <v>18.54017735440427</v>
+        <v>12.62997730776742</v>
       </c>
       <c r="O4">
-        <v>23.62075773690207</v>
+        <v>15.26291155414316</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>14.38254393331393</v>
+        <v>16.40912670917504</v>
       </c>
       <c r="C5">
-        <v>10.00520058433682</v>
+        <v>10.4741398856398</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>15.80258421615792</v>
+        <v>9.163242590314216</v>
       </c>
       <c r="F5">
-        <v>37.05723081509729</v>
+        <v>24.71658822982242</v>
       </c>
       <c r="G5">
-        <v>3.647811822928096</v>
+        <v>2.092002241669705</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>24.00891981598357</v>
+        <v>14.67594838909763</v>
       </c>
       <c r="J5">
-        <v>7.730739019980808</v>
+        <v>5.20449886994553</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>12.7344990291335</v>
+        <v>7.70540186834919</v>
       </c>
       <c r="M5">
-        <v>16.45008169946048</v>
+        <v>11.60842967590812</v>
       </c>
       <c r="N5">
-        <v>18.55411099610703</v>
+        <v>12.66983146632836</v>
       </c>
       <c r="O5">
-        <v>23.63914209007698</v>
+        <v>15.23561610479411</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>14.36506028171986</v>
+        <v>16.35049637391838</v>
       </c>
       <c r="C6">
-        <v>9.997964225599155</v>
+        <v>10.45413001911352</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>15.804127639629</v>
+        <v>9.165169346450892</v>
       </c>
       <c r="F6">
-        <v>37.05982566986776</v>
+        <v>24.69770601959049</v>
       </c>
       <c r="G6">
-        <v>3.647900558702433</v>
+        <v>2.092223014071785</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>24.01349742868504</v>
+        <v>14.68232250218037</v>
       </c>
       <c r="J6">
-        <v>7.730414907895335</v>
+        <v>5.20313403871462</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>12.73463061051839</v>
+        <v>7.699427532733602</v>
       </c>
       <c r="M6">
-        <v>16.44673176325069</v>
+        <v>11.58440586538114</v>
       </c>
       <c r="N6">
-        <v>18.55645141486623</v>
+        <v>12.67649862464032</v>
       </c>
       <c r="O6">
-        <v>23.64227625177362</v>
+        <v>15.23128432072883</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>14.48615004794924</v>
+        <v>16.75324192141294</v>
       </c>
       <c r="C7">
-        <v>10.04798335954695</v>
+        <v>10.59216176258498</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>15.79354839406432</v>
+        <v>9.15205981399459</v>
       </c>
       <c r="F7">
-        <v>37.04257091274938</v>
+        <v>24.83021014993485</v>
       </c>
       <c r="G7">
-        <v>3.647290379024887</v>
+        <v>2.09069972396916</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>23.9821328887034</v>
+        <v>14.63908729020401</v>
       </c>
       <c r="J7">
-        <v>7.732664893125493</v>
+        <v>5.212602522710735</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>12.73385285453862</v>
+        <v>7.741046702023644</v>
       </c>
       <c r="M7">
-        <v>16.47016433772322</v>
+        <v>11.75042335212606</v>
       </c>
       <c r="N7">
-        <v>18.540363475855</v>
+        <v>12.63051148282904</v>
       </c>
       <c r="O7">
-        <v>23.62100021204709</v>
+        <v>15.26252993070065</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>15.0128126754146</v>
+        <v>18.42666674075482</v>
       </c>
       <c r="C8">
-        <v>10.26332406338186</v>
+        <v>11.17931417987705</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>15.75017085973543</v>
+        <v>9.100832115653382</v>
       </c>
       <c r="F8">
-        <v>36.98516056775317</v>
+        <v>25.45015727543002</v>
       </c>
       <c r="G8">
-        <v>3.644739563066059</v>
+        <v>2.084199593858004</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>23.85385880150699</v>
+        <v>14.47414421255542</v>
       </c>
       <c r="J8">
-        <v>7.742598875711508</v>
+        <v>5.254244100411493</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>12.73376619346971</v>
+        <v>7.928173195023256</v>
       </c>
       <c r="M8">
-        <v>16.57792690372307</v>
+        <v>12.46343981061849</v>
       </c>
       <c r="N8">
-        <v>18.4732520803215</v>
+        <v>12.43476325102393</v>
       </c>
       <c r="O8">
-        <v>23.53897605592422</v>
+        <v>15.43018414153775</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>16.0082914788186</v>
+        <v>21.3395425799389</v>
       </c>
       <c r="C9">
-        <v>10.66437116370266</v>
+        <v>12.24627891593345</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>15.67694810819113</v>
+        <v>9.024999452945444</v>
       </c>
       <c r="F9">
-        <v>36.93998159194252</v>
+        <v>26.787587326121</v>
       </c>
       <c r="G9">
-        <v>3.64024358996479</v>
+        <v>2.072212927559865</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>23.63879995954914</v>
+        <v>14.25265875188402</v>
       </c>
       <c r="J9">
-        <v>7.762080139944838</v>
+        <v>5.335216912242273</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>12.74552722920148</v>
+        <v>8.305135885175593</v>
       </c>
       <c r="M9">
-        <v>16.80389346340912</v>
+        <v>13.77990368552427</v>
       </c>
       <c r="N9">
-        <v>18.35553042478596</v>
+        <v>12.07678912174172</v>
       </c>
       <c r="O9">
-        <v>23.42096201424052</v>
+        <v>15.8711562647482</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.70916251313636</v>
+        <v>23.25903119753743</v>
       </c>
       <c r="C10">
-        <v>10.9445006758408</v>
+        <v>12.97499653655007</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>15.63032984738147</v>
+        <v>8.985098721539625</v>
       </c>
       <c r="F10">
-        <v>36.94788787230778</v>
+        <v>27.83933082039895</v>
       </c>
       <c r="G10">
-        <v>3.637245766331567</v>
+        <v>2.063832226422061</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>23.50310741553927</v>
+        <v>14.16097380030407</v>
       </c>
       <c r="J10">
-        <v>7.776378258541652</v>
+        <v>5.394125969315996</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>12.76135238669203</v>
+        <v>8.586056224098911</v>
       </c>
       <c r="M10">
-        <v>16.97787739135116</v>
+        <v>14.6893474080081</v>
       </c>
       <c r="N10">
-        <v>18.27744211311814</v>
+        <v>11.82971068829625</v>
       </c>
       <c r="O10">
-        <v>23.36053522278583</v>
+        <v>16.26746853796741</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.01994467765008</v>
+        <v>24.08527687898104</v>
       </c>
       <c r="C11">
-        <v>11.06847794358843</v>
+        <v>13.29398349854344</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>15.61067231800944</v>
+        <v>8.970563429732342</v>
       </c>
       <c r="F11">
-        <v>36.96039163581578</v>
+        <v>28.33167697572656</v>
       </c>
       <c r="G11">
-        <v>3.635947604785566</v>
+        <v>2.060103320429847</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>23.44623709266865</v>
+        <v>14.13670923378541</v>
       </c>
       <c r="J11">
-        <v>7.782876364927688</v>
+        <v>5.420763016513652</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>12.7700904570526</v>
+        <v>8.714290279324775</v>
       </c>
       <c r="M11">
-        <v>17.05854269021897</v>
+        <v>15.08929307521993</v>
       </c>
       <c r="N11">
-        <v>18.24372914874709</v>
+        <v>11.72082315021075</v>
       </c>
       <c r="O11">
-        <v>23.33878100274889</v>
+        <v>16.46413340461929</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.13636648978818</v>
+        <v>24.39148088883818</v>
       </c>
       <c r="C12">
-        <v>11.11490397609165</v>
+        <v>13.41294470390778</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>15.60345066669055</v>
+        <v>8.965595070482371</v>
       </c>
       <c r="F12">
-        <v>36.96640410291731</v>
+        <v>28.52002167275225</v>
       </c>
       <c r="G12">
-        <v>3.63546540109171</v>
+        <v>2.058702522241262</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>23.4254015660426</v>
+        <v>14.13020234365703</v>
       </c>
       <c r="J12">
-        <v>7.785335830246812</v>
+        <v>5.430823449029846</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>12.77361864126847</v>
+        <v>8.762879725897392</v>
       </c>
       <c r="M12">
-        <v>17.08928831154194</v>
+        <v>15.23868390905986</v>
       </c>
       <c r="N12">
-        <v>18.23122223538535</v>
+        <v>11.68010224813984</v>
       </c>
       <c r="O12">
-        <v>23.33136969769546</v>
+        <v>16.54100435315618</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.11135081993007</v>
+        <v>24.32583017463418</v>
       </c>
       <c r="C13">
-        <v>11.10492886935116</v>
+        <v>13.38740619767335</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>15.60499610384611</v>
+        <v>8.966641003953434</v>
       </c>
       <c r="F13">
-        <v>36.96505245351509</v>
+        <v>28.47937504819141</v>
       </c>
       <c r="G13">
-        <v>3.635568835750589</v>
+        <v>2.059003721003795</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>23.42985770960555</v>
+        <v>14.13148165076541</v>
       </c>
       <c r="J13">
-        <v>7.784806200364472</v>
+        <v>5.428657983763264</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>12.77284906574632</v>
+        <v>8.752414293625302</v>
       </c>
       <c r="M13">
-        <v>17.08265812837352</v>
+        <v>15.20660264211013</v>
       </c>
       <c r="N13">
-        <v>18.23390429604913</v>
+        <v>11.68884928843407</v>
       </c>
       <c r="O13">
-        <v>23.33292906620673</v>
+        <v>16.52434153779215</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.02954869560689</v>
+        <v>24.11060186758702</v>
       </c>
       <c r="C14">
-        <v>11.07230802842912</v>
+        <v>13.30380738593909</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>15.6100737378575</v>
+        <v>8.970143847458068</v>
       </c>
       <c r="F14">
-        <v>36.96086070319434</v>
+        <v>28.34713457488742</v>
       </c>
       <c r="G14">
-        <v>3.635907745832113</v>
+        <v>2.059987854780885</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>23.4445089024069</v>
+        <v>14.13611915754036</v>
       </c>
       <c r="J14">
-        <v>7.7830787331538</v>
+        <v>5.42159124327883</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>12.7703763406666</v>
+        <v>8.718287344820816</v>
       </c>
       <c r="M14">
-        <v>17.06106826422441</v>
+        <v>15.10162523520154</v>
       </c>
       <c r="N14">
-        <v>18.24269500207019</v>
+        <v>11.71746269587788</v>
       </c>
       <c r="O14">
-        <v>23.33815469492333</v>
+        <v>16.47040933556584</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.97927481970033</v>
+        <v>23.97790092015859</v>
       </c>
       <c r="C15">
-        <v>11.05225820329217</v>
+        <v>13.25236126437311</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>15.61321285922907</v>
+        <v>8.972359705151813</v>
       </c>
       <c r="F15">
-        <v>36.95845939704054</v>
+        <v>28.26637868202807</v>
       </c>
       <c r="G15">
-        <v>3.636116558484828</v>
+        <v>2.060592108064962</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>23.45357439380975</v>
+        <v>14.13931420071555</v>
       </c>
       <c r="J15">
-        <v>7.782020439767182</v>
+        <v>5.417259118916333</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>12.76889021706208</v>
+        <v>8.697386554472896</v>
       </c>
       <c r="M15">
-        <v>17.04786925033366</v>
+        <v>15.0370531744021</v>
       </c>
       <c r="N15">
-        <v>18.24811332879966</v>
+        <v>11.73505623145919</v>
       </c>
       <c r="O15">
-        <v>23.34146323680962</v>
+        <v>16.43768779315839</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.68868081954466</v>
+        <v>23.20409571405489</v>
       </c>
       <c r="C16">
-        <v>10.93632680797353</v>
+        <v>12.95389518532557</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>15.63164564160291</v>
+        <v>8.986122740050902</v>
       </c>
       <c r="F16">
-        <v>36.94724969988291</v>
+        <v>27.8074263278721</v>
       </c>
       <c r="G16">
-        <v>3.637331919601478</v>
+        <v>2.0640775365664</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>23.50692189576791</v>
+        <v>14.16292525910239</v>
       </c>
       <c r="J16">
-        <v>7.775953438877105</v>
+        <v>5.392381656321715</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>12.76081213117715</v>
+        <v>8.577681797425255</v>
       </c>
       <c r="M16">
-        <v>16.97263467350952</v>
+        <v>14.66292576511281</v>
       </c>
       <c r="N16">
-        <v>18.27968168423202</v>
+        <v>11.83689799057676</v>
       </c>
       <c r="O16">
-        <v>23.36207247571568</v>
+        <v>16.25494943525751</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.50827002485705</v>
+        <v>22.71741998131899</v>
       </c>
       <c r="C17">
-        <v>10.86430376542177</v>
+        <v>12.76756497072178</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>15.64334997893547</v>
+        <v>8.995503112488372</v>
       </c>
       <c r="F17">
-        <v>36.94265224134446</v>
+        <v>27.5293653138033</v>
       </c>
       <c r="G17">
-        <v>3.638094263780526</v>
+        <v>2.066236604488423</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>23.5408939724018</v>
+        <v>14.18199936540214</v>
       </c>
       <c r="J17">
-        <v>7.772229708648362</v>
+        <v>5.37707658481879</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>12.75624926758804</v>
+        <v>8.504335385545643</v>
       </c>
       <c r="M17">
-        <v>16.92685634301644</v>
+        <v>14.42982250790987</v>
       </c>
       <c r="N17">
-        <v>18.29951081084776</v>
+        <v>11.90027847971428</v>
       </c>
       <c r="O17">
-        <v>23.37618575844517</v>
+        <v>16.1470731821099</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.40375080678813</v>
+        <v>22.43307437024222</v>
       </c>
       <c r="C18">
-        <v>10.82255419676404</v>
+        <v>12.6592165773857</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>15.65022787023228</v>
+        <v>9.001237797738332</v>
       </c>
       <c r="F18">
-        <v>36.94084654854121</v>
+        <v>27.37074604172887</v>
       </c>
       <c r="G18">
-        <v>3.638538917859439</v>
+        <v>2.067486352020043</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>23.56089086888128</v>
+        <v>14.19460147283202</v>
       </c>
       <c r="J18">
-        <v>7.77008735636248</v>
+        <v>5.368258560787641</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>12.75376982964793</v>
+        <v>8.462191940499945</v>
       </c>
       <c r="M18">
-        <v>16.90067000582562</v>
+        <v>14.29445575104889</v>
       </c>
       <c r="N18">
-        <v>18.31108639307374</v>
+        <v>11.93706304019334</v>
       </c>
       <c r="O18">
-        <v>23.38484298130445</v>
+        <v>16.0865652994031</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.36823672707131</v>
+        <v>22.33603806856886</v>
       </c>
       <c r="C19">
-        <v>10.80836366703327</v>
+        <v>12.62233083436337</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>15.65258167596494</v>
+        <v>9.003237271855813</v>
       </c>
       <c r="F19">
-        <v>36.94037929308994</v>
+        <v>27.31726896504522</v>
       </c>
       <c r="G19">
-        <v>3.638690531868494</v>
+        <v>2.067910875544972</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>23.56773992538151</v>
+        <v>14.19914328295253</v>
       </c>
       <c r="J19">
-        <v>7.76936190653581</v>
+        <v>5.365270460750208</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>12.75295529931812</v>
+        <v>8.447931421645155</v>
       </c>
       <c r="M19">
-        <v>16.89182909438525</v>
+        <v>14.24840373422467</v>
       </c>
       <c r="N19">
-        <v>18.31503497597606</v>
+        <v>11.94957409319264</v>
       </c>
       <c r="O19">
-        <v>23.38786678570155</v>
+        <v>16.06634140876372</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.52755366985562</v>
+        <v>22.76968464724948</v>
       </c>
       <c r="C20">
-        <v>10.87200443818715</v>
+        <v>12.78752214189463</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>15.64208893977387</v>
+        <v>8.994469321935641</v>
       </c>
       <c r="F20">
-        <v>36.94305487267223</v>
+        <v>27.55883009065294</v>
       </c>
       <c r="G20">
-        <v>3.638012472303156</v>
+        <v>2.066005954791616</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>23.53723027154547</v>
+        <v>14.17979883194505</v>
       </c>
       <c r="J20">
-        <v>7.772626166595724</v>
+        <v>5.378707406911632</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>12.75671999973434</v>
+        <v>8.512138987944237</v>
       </c>
       <c r="M20">
-        <v>16.93171474259802</v>
+        <v>14.45477109385096</v>
       </c>
       <c r="N20">
-        <v>18.29738233722345</v>
+        <v>11.89349733711521</v>
       </c>
       <c r="O20">
-        <v>23.37462750975557</v>
+        <v>16.15839711310806</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.05361109143985</v>
+        <v>24.17400027050045</v>
       </c>
       <c r="C21">
-        <v>11.08190390213986</v>
+        <v>13.32841232766503</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>15.60857628695386</v>
+        <v>8.96910030499895</v>
       </c>
       <c r="F21">
-        <v>36.96205728029852</v>
+        <v>28.38592586596029</v>
       </c>
       <c r="G21">
-        <v>3.635807945469041</v>
+        <v>2.059698491541004</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>23.44018648037322</v>
+        <v>14.13468283007765</v>
       </c>
       <c r="J21">
-        <v>7.783586168151636</v>
+        <v>5.423667660312118</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>12.77109670611196</v>
+        <v>8.728310698339865</v>
       </c>
       <c r="M21">
-        <v>17.06740447139643</v>
+        <v>15.13251610948727</v>
       </c>
       <c r="N21">
-        <v>18.24010592331569</v>
+        <v>11.70904426585538</v>
       </c>
       <c r="O21">
-        <v>23.33659735484674</v>
+        <v>16.48618513163132</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.39000578872823</v>
+        <v>25.05291645861574</v>
       </c>
       <c r="C22">
-        <v>11.21603536729194</v>
+        <v>13.67122681506009</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>15.58796888692687</v>
+        <v>8.955651310189134</v>
       </c>
       <c r="F22">
-        <v>36.98192083277581</v>
+        <v>28.93753882224357</v>
       </c>
       <c r="G22">
-        <v>3.634421823597945</v>
+        <v>2.055641433020444</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>23.3808438239922</v>
+        <v>14.12091047318922</v>
       </c>
       <c r="J22">
-        <v>7.790741853522455</v>
+        <v>5.452896111052186</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>12.78176973121104</v>
+        <v>8.869752448340282</v>
       </c>
       <c r="M22">
-        <v>17.15723893667175</v>
+        <v>15.56342891692115</v>
       </c>
       <c r="N22">
-        <v>18.20418442205031</v>
+        <v>11.59148541948084</v>
       </c>
       <c r="O22">
-        <v>23.3165608661209</v>
+        <v>16.71440830497293</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.21117694916282</v>
+        <v>24.58735585240508</v>
       </c>
       <c r="C23">
-        <v>11.14473373442824</v>
+        <v>13.48924683221219</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>15.59884913307674</v>
+        <v>8.962537373951809</v>
       </c>
       <c r="F23">
-        <v>36.97063946370758</v>
+        <v>28.64215057641151</v>
       </c>
       <c r="G23">
-        <v>3.635156636292902</v>
+        <v>2.057801053936099</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>23.41214216146987</v>
+        <v>14.12676492448218</v>
       </c>
       <c r="J23">
-        <v>7.786923511194735</v>
+        <v>5.43731168264068</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>12.77595719989278</v>
+        <v>8.794258032927255</v>
       </c>
       <c r="M23">
-        <v>17.10919341180493</v>
+        <v>15.33456603997483</v>
       </c>
       <c r="N23">
-        <v>18.22321831680659</v>
+        <v>11.65395197182656</v>
       </c>
       <c r="O23">
-        <v>23.3268132685746</v>
+        <v>16.59130809611816</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.51883801328132</v>
+        <v>22.74606996714268</v>
       </c>
       <c r="C24">
-        <v>10.86852402918976</v>
+        <v>12.77850331675262</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>15.64265859170006</v>
+        <v>8.994935635258708</v>
       </c>
       <c r="F24">
-        <v>36.94287023422487</v>
+        <v>27.54550519006727</v>
       </c>
       <c r="G24">
-        <v>3.638049430377093</v>
+        <v>2.066110205079196</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>23.53888517956609</v>
+        <v>14.18078860995261</v>
       </c>
       <c r="J24">
-        <v>7.772446932693858</v>
+        <v>5.377970170971645</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>12.75650673361742</v>
+        <v>8.508610900772322</v>
       </c>
       <c r="M24">
-        <v>16.92951784679613</v>
+        <v>14.44349604486968</v>
       </c>
       <c r="N24">
-        <v>18.29834407324153</v>
+        <v>11.89656201368404</v>
       </c>
       <c r="O24">
-        <v>23.37533030175178</v>
+        <v>16.1532728588649</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.74382320679674</v>
+        <v>20.59057854795023</v>
       </c>
       <c r="C25">
-        <v>10.55831805655532</v>
+        <v>11.96710584512242</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>15.69549331952074</v>
+        <v>9.042797047237547</v>
       </c>
       <c r="F25">
-        <v>36.94498312962038</v>
+        <v>26.41325076467877</v>
       </c>
       <c r="G25">
-        <v>3.641406013775356</v>
+        <v>2.075378012384743</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>23.69306599862123</v>
+        <v>14.30076549512534</v>
       </c>
       <c r="J25">
-        <v>7.756811414691625</v>
+        <v>5.313401705046632</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>12.74107700486536</v>
+        <v>8.202310754975359</v>
       </c>
       <c r="M25">
-        <v>16.74129298892427</v>
+        <v>13.43342171909947</v>
       </c>
       <c r="N25">
-        <v>18.38589740330444</v>
+        <v>12.17084874390639</v>
       </c>
       <c r="O25">
-        <v>23.44828399807169</v>
+        <v>15.73940990619255</v>
       </c>
     </row>
   </sheetData>
